--- a/Test_cases/Caso de prueba 4.xlsx
+++ b/Test_cases/Caso de prueba 4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iñaki\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moren\Documents\GitHub\Grupo0102\Test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8124CE5-3274-43DE-BE6E-E590CE2FA2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37530949-AFFB-4390-8910-B4D7E6BB2EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -136,9 +136,6 @@
     <t>User Stories covered</t>
   </si>
   <si>
-    <t>US-1, US-4</t>
-  </si>
-  <si>
     <t>Automation Status</t>
   </si>
   <si>
@@ -200,6 +197,9 @@
   </si>
   <si>
     <t>password = 7BALONES</t>
+  </si>
+  <si>
+    <t>PE-44</t>
   </si>
 </sst>
 </file>
@@ -594,8 +594,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+  <cellXfs count="60">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -605,7 +605,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -615,15 +615,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -642,7 +639,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -655,9 +652,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -676,7 +673,7 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -689,23 +686,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,21 +721,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -949,13 +943,13 @@
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:G7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -965,12 +959,12 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="50"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -980,7 +974,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -990,10 +984,10 @@
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1003,85 +997,85 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="14"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="14"/>
+      <c r="K3" s="13"/>
       <c r="L3" s="4"/>
-      <c r="M3" s="14"/>
+      <c r="M3" s="13"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="17" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20">
+    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="19">
         <v>1</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1091,22 +1085,22 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20">
+      <c r="C7" s="18"/>
+      <c r="D7" s="19">
         <v>2</v>
       </c>
-      <c r="E7" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
+      <c r="E7" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1116,18 +1110,18 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="22">
         <v>1</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4"/>
-      <c r="D8" s="14"/>
+      <c r="D8" s="13"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1137,18 +1131,18 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+    <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="22">
         <v>2</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="4"/>
-      <c r="D9" s="14"/>
+      <c r="D9" s="13"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1158,18 +1152,18 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+    <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="22">
         <v>3</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="14"/>
+      <c r="D10" s="13"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1179,13 +1173,13 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
+    <row r="11" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="4"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="14"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1196,14 +1190,14 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+    <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="4"/>
-      <c r="D12" s="14"/>
+      <c r="D12" s="13"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1213,227 +1207,227 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="13"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="14"/>
+      <c r="D13" s="13"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
-      <c r="D14" s="14"/>
+      <c r="D14" s="13"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="51" t="s">
+      <c r="F14" s="24"/>
+      <c r="G14" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="53"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="56"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
-      <c r="D15" s="14"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="54" t="s">
+      <c r="F15" s="24"/>
+      <c r="G15" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54" t="s">
+      <c r="H15" s="56"/>
+      <c r="I15" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="53"/>
-      <c r="K15" s="54" t="s">
+      <c r="J15" s="56"/>
+      <c r="K15" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="53"/>
-      <c r="M15" s="54" t="s">
+      <c r="L15" s="56"/>
+      <c r="M15" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="53"/>
+      <c r="N15" s="56"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="14"/>
+      <c r="D16" s="13"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="54" t="s">
+      <c r="F16" s="24"/>
+      <c r="G16" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="54" t="s">
+      <c r="H16" s="56"/>
+      <c r="I16" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54" t="s">
+      <c r="J16" s="56"/>
+      <c r="K16" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="53"/>
-      <c r="M16" s="54" t="s">
+      <c r="L16" s="56"/>
+      <c r="M16" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="53"/>
+      <c r="N16" s="56"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="27" t="s">
+      <c r="F17" s="25"/>
+      <c r="G17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="27" t="s">
+      <c r="H17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="27" t="s">
+      <c r="I17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="27" t="s">
+      <c r="J17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="27" t="s">
+      <c r="K17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="27" t="s">
+      <c r="L17" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="27" t="s">
+      <c r="M17" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="28" t="s">
+      <c r="N17" s="27" t="s">
         <v>30</v>
       </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="29" t="s">
+      <c r="F18" s="18"/>
+      <c r="G18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="29" t="s">
+      <c r="H18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="29" t="s">
+      <c r="I18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="29" t="s">
+      <c r="J18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="29" t="s">
+      <c r="K18" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="29" t="s">
+      <c r="L18" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="12"/>
-      <c r="N18" s="29" t="s">
+      <c r="M18" s="11"/>
+      <c r="N18" s="28" t="s">
         <v>33</v>
       </c>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="29" t="s">
+    <row r="19" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="29" t="s">
+      <c r="I19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="29" t="s">
+      <c r="J19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="29" t="s">
+      <c r="K19" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="29" t="s">
+      <c r="L19" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="12"/>
-      <c r="N19" s="29" t="s">
+      <c r="M19" s="11"/>
+      <c r="N19" s="28" t="s">
         <v>33</v>
       </c>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+    <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="29" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="29" t="s">
+      <c r="H20" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="29" t="s">
+      <c r="I20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="31" t="s">
+      <c r="J20" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="29" t="s">
+      <c r="K20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="29" t="s">
+      <c r="L20" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="M20" s="12"/>
-      <c r="N20" s="29" t="s">
+      <c r="M20" s="11"/>
+      <c r="N20" s="28" t="s">
         <v>33</v>
       </c>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
-      <c r="B21" s="47"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
+    <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="42"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
       <c r="E21" s="40"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
@@ -1442,23 +1436,23 @@
       <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="13"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="32" t="s">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" s="11"/>
+      <c r="D22" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="34" t="s">
+      <c r="E22" s="34" t="s">
         <v>39</v>
-      </c>
-      <c r="E22" s="35" t="s">
-        <v>40</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1467,16 +1461,16 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+    <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
@@ -1484,22 +1478,22 @@
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
       <c r="O23" s="4"/>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="C24" s="38"/>
+      <c r="D24" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="E24" s="56"/>
+      <c r="E24" s="38"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1511,18 +1505,18 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="37">
+    <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="36">
         <v>1</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="56"/>
+      <c r="E25" s="38"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1534,18 +1528,18 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="37">
+    <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="36">
         <v>2</v>
       </c>
-      <c r="B26" s="60" t="s">
+      <c r="B26" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="38"/>
+      <c r="D26" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="56"/>
-      <c r="D26" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="E26" s="56"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1557,61 +1551,61 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A27" s="37">
+    <row r="27" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="36">
         <v>3</v>
       </c>
-      <c r="B27" s="60" t="s">
+      <c r="B27" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="38"/>
+      <c r="D27" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="56"/>
-      <c r="D27" s="60" t="s">
+      <c r="E27" s="38"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="4"/>
+    </row>
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="56"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="9"/>
-      <c r="O27" s="4"/>
-    </row>
-    <row r="28" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="14"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="58"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="19"/>
-      <c r="G28" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="H28" s="56"/>
-      <c r="I28" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="J28" s="56"/>
-      <c r="K28" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="L28" s="56"/>
-      <c r="M28" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="N28" s="56"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="38"/>
+      <c r="K28" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="38"/>
+      <c r="M28" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="N28" s="38"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="19"/>
+    <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="13"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="39"/>
       <c r="H29" s="40"/>
       <c r="I29" s="39"/>
@@ -1622,13 +1616,13 @@
       <c r="N29" s="40"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="19"/>
+    <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="13"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="18"/>
       <c r="G30" s="39"/>
       <c r="H30" s="40"/>
       <c r="I30" s="39"/>
@@ -1639,13 +1633,13 @@
       <c r="N30" s="40"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="41"/>
-      <c r="C31" s="41"/>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="19"/>
+    <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="13"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="18"/>
       <c r="G31" s="39"/>
       <c r="H31" s="40"/>
       <c r="I31" s="39"/>
@@ -1656,17 +1650,17 @@
       <c r="N31" s="40"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A32" s="42" t="s">
+    <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="19"/>
+      <c r="B32" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
+      <c r="F32" s="18"/>
       <c r="G32" s="39"/>
       <c r="H32" s="40"/>
       <c r="I32" s="39"/>
@@ -1677,13 +1671,13 @@
       <c r="N32" s="40"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="47"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
+    <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="42"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
       <c r="E33" s="40"/>
-      <c r="F33" s="19"/>
+      <c r="F33" s="18"/>
       <c r="G33" s="39"/>
       <c r="H33" s="40"/>
       <c r="I33" s="39"/>
@@ -1694,19 +1688,19 @@
       <c r="N33" s="40"/>
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="32" t="s">
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="B34" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="11"/>
+      <c r="D34" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="34" t="s">
+      <c r="E34" s="34" t="s">
         <v>39</v>
-      </c>
-      <c r="E34" s="35" t="s">
-        <v>40</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1719,12 +1713,12 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
+    <row r="35" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -1736,18 +1730,18 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="36" t="s">
+    <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="C36" s="38"/>
+      <c r="D36" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="56"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1759,18 +1753,18 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A37" s="37">
+    <row r="37" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="36">
         <v>1</v>
       </c>
-      <c r="B37" s="60" t="s">
+      <c r="B37" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="38"/>
+      <c r="D37" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="E37" s="56"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1782,18 +1776,18 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A38" s="37">
+    <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="36">
         <v>2</v>
       </c>
-      <c r="B38" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" s="56"/>
+      <c r="B38" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="38"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1805,18 +1799,18 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A39" s="37">
+    <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="36">
         <v>3</v>
       </c>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="38"/>
+      <c r="D39" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="E39" s="56"/>
+      <c r="E39" s="38"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1828,18 +1822,18 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A40" s="37">
+    <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="36">
         <v>4</v>
       </c>
-      <c r="B40" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="56"/>
+      <c r="B40" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="38"/>
+      <c r="D40" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="38"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1851,56 +1845,56 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A41" s="37">
+    <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="36">
         <v>5</v>
       </c>
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C41" s="38"/>
+      <c r="D41" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="E41" s="56"/>
+      <c r="E41" s="38"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A42" s="38"/>
+    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="36"/>
       <c r="B42" s="39"/>
       <c r="C42" s="40"/>
       <c r="D42" s="39"/>
       <c r="E42" s="40"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="H42" s="56"/>
-      <c r="I42" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="J42" s="56"/>
-      <c r="K42" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="L42" s="56"/>
-      <c r="M42" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="N42" s="56"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="H42" s="38"/>
+      <c r="I42" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="J42" s="38"/>
+      <c r="K42" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="L42" s="38"/>
+      <c r="M42" s="48" t="s">
+        <v>49</v>
+      </c>
+      <c r="N42" s="38"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A43" s="38"/>
+    <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="36"/>
       <c r="B43" s="39"/>
       <c r="C43" s="40"/>
       <c r="D43" s="39"/>
@@ -1908,17 +1902,17 @@
       <c r="F43" s="4"/>
       <c r="G43" s="39"/>
       <c r="H43" s="40"/>
-      <c r="I43" s="61" t="s">
-        <v>56</v>
-      </c>
-      <c r="J43" s="56"/>
+      <c r="I43" s="49" t="s">
+        <v>55</v>
+      </c>
+      <c r="J43" s="38"/>
       <c r="K43" s="39"/>
       <c r="L43" s="40"/>
       <c r="M43" s="39"/>
       <c r="N43" s="40"/>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -1935,16 +1929,16 @@
       <c r="N44" s="40"/>
       <c r="O44" s="4"/>
     </row>
-    <row r="45" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A45" s="42" t="s">
+    <row r="45" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="45"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="46"/>
+      <c r="B45" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="4"/>
       <c r="G45" s="39"/>
       <c r="H45" s="40"/>
@@ -1956,11 +1950,11 @@
       <c r="N45" s="40"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A46" s="43"/>
-      <c r="B46" s="47"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
+    <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="42"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
       <c r="E46" s="40"/>
       <c r="F46" s="4"/>
       <c r="G46" s="39"/>
@@ -1973,19 +1967,19 @@
       <c r="N46" s="40"/>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A47" s="32" t="s">
+    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="33" t="s">
+      <c r="B47" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C47" s="11"/>
+      <c r="D47" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="C47" s="12"/>
-      <c r="D47" s="34" t="s">
+      <c r="E47" s="34" t="s">
         <v>39</v>
-      </c>
-      <c r="E47" s="35" t="s">
-        <v>40</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="39"/>
@@ -1998,12 +1992,12 @@
       <c r="N47" s="40"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="E48" s="9"/>
+    <row r="48" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -2015,18 +2009,18 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="1:15" ht="13.8" x14ac:dyDescent="0.3">
-      <c r="A49" s="36" t="s">
+    <row r="49" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="35" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="55" t="s">
+      <c r="C49" s="38"/>
+      <c r="D49" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C49" s="56"/>
-      <c r="D49" s="55" t="s">
-        <v>43</v>
-      </c>
-      <c r="E49" s="56"/>
+      <c r="E49" s="38"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -2038,18 +2032,18 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
     </row>
-    <row r="50" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A50" s="37">
+    <row r="50" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="36">
         <v>1</v>
       </c>
-      <c r="B50" s="60" t="s">
+      <c r="B50" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="56"/>
-      <c r="D50" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="56"/>
+      <c r="E50" s="38"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -2061,18 +2055,18 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A51" s="37">
+    <row r="51" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="36">
         <v>2</v>
       </c>
-      <c r="B51" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="C51" s="56"/>
-      <c r="D51" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="56"/>
+      <c r="B51" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="38"/>
+      <c r="D51" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E51" s="38"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -2084,18 +2078,18 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
     </row>
-    <row r="52" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A52" s="37">
+    <row r="52" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="36">
         <v>3</v>
       </c>
-      <c r="B52" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="E52" s="56"/>
+      <c r="B52" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="38"/>
+      <c r="D52" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="38"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -2107,18 +2101,18 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A53" s="37">
+    <row r="53" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="36">
         <v>4</v>
       </c>
-      <c r="B53" s="60" t="s">
+      <c r="B53" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C53" s="38"/>
+      <c r="D53" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="C53" s="56"/>
-      <c r="D53" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" s="56"/>
+      <c r="E53" s="38"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -2130,18 +2124,18 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="1:15" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A54" s="37">
+    <row r="54" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="36">
         <v>5</v>
       </c>
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54" s="38"/>
+      <c r="D54" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="E54" s="56"/>
+      <c r="E54" s="38"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -2155,36 +2149,68 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:E46"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="B37:C37"/>
@@ -2209,68 +2235,36 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:E21"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:E33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:E46"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="M46:N46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test_cases/Caso de prueba 4.xlsx
+++ b/Test_cases/Caso de prueba 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moren\Documents\GitHub\Grupo0102\Test_cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lautaroacosta/Documents/Facultad/Testing/Grupo0102/Test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37530949-AFFB-4390-8910-B4D7E6BB2EEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B5E7A5-07F9-9044-BF2C-ADCD02AC9525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="30220" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -594,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -626,9 +626,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -686,10 +683,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -701,18 +694,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -721,8 +705,30 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -943,13 +949,17 @@
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="181" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -959,12 +969,12 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="59"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -974,7 +984,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -986,8 +996,8 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -997,7 +1007,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1022,7 +1032,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="4"/>
@@ -1039,15 +1049,15 @@
       <c r="N4" s="13"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:15" ht="24" x14ac:dyDescent="0.15">
+      <c r="A5" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
         <v>13</v>
       </c>
       <c r="E5" s="7" t="s">
@@ -1064,18 +1074,18 @@
       <c r="N5" s="13"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19">
+      <c r="C6" s="17"/>
+      <c r="D6" s="18">
         <v>1</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1085,22 +1095,22 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19">
+      <c r="C7" s="17"/>
+      <c r="D7" s="18">
         <v>2</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1110,18 +1120,18 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="22">
+    <row r="8" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A8" s="21">
         <v>1</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="13"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1131,18 +1141,18 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="22">
+    <row r="9" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A9" s="21">
         <v>2</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="13"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1152,18 +1162,18 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="22">
+    <row r="10" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" s="21">
         <v>3</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="13"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1173,7 +1183,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="4"/>
@@ -1190,14 +1200,14 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="4"/>
       <c r="D12" s="13"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1207,90 +1217,90 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="13"/>
       <c r="E13" s="4"/>
       <c r="F13" s="13"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="23"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="13"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="54" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="56"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="50"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="13"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="57" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="56"/>
-      <c r="I15" s="57" t="s">
+      <c r="H15" s="50"/>
+      <c r="I15" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="56"/>
-      <c r="K15" s="57" t="s">
+      <c r="J15" s="50"/>
+      <c r="K15" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="56"/>
-      <c r="M15" s="57" t="s">
+      <c r="L15" s="50"/>
+      <c r="M15" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="56"/>
+      <c r="N15" s="50"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="13"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="57" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="56"/>
-      <c r="I16" s="57" t="s">
+      <c r="H16" s="50"/>
+      <c r="I16" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57" t="s">
+      <c r="J16" s="50"/>
+      <c r="K16" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="56"/>
-      <c r="M16" s="57" t="s">
+      <c r="L16" s="50"/>
+      <c r="M16" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="56"/>
+      <c r="N16" s="50"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1299,136 +1309,136 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26" t="s">
+      <c r="F17" s="24"/>
+      <c r="G17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="26" t="s">
+      <c r="K17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="26" t="s">
+      <c r="M17" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="N17" s="27" t="s">
+      <c r="N17" s="26" t="s">
         <v>30</v>
       </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="28" t="s">
+      <c r="F18" s="17"/>
+      <c r="G18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H18" s="28" t="s">
+      <c r="H18" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I18" s="28" t="s">
+      <c r="I18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J18" s="28" t="s">
+      <c r="J18" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K18" s="28" t="s">
+      <c r="K18" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L18" s="28" t="s">
+      <c r="L18" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M18" s="11"/>
-      <c r="N18" s="28" t="s">
+      <c r="N18" s="27" t="s">
         <v>33</v>
       </c>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="29"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="28" t="s">
+      <c r="F19" s="17"/>
+      <c r="G19" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H19" s="28" t="s">
+      <c r="H19" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I19" s="28" t="s">
+      <c r="I19" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="28" t="s">
+      <c r="J19" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="28" t="s">
+      <c r="K19" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L19" s="28" t="s">
+      <c r="L19" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M19" s="11"/>
-      <c r="N19" s="28" t="s">
+      <c r="N19" s="27" t="s">
         <v>33</v>
       </c>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="41" t="s">
+    <row r="20" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A20" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="28" t="s">
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="28" t="s">
+      <c r="H20" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="I20" s="28" t="s">
+      <c r="I20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="30" t="s">
+      <c r="J20" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="K20" s="28" t="s">
+      <c r="K20" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="L20" s="28" t="s">
+      <c r="L20" s="27" t="s">
         <v>32</v>
       </c>
       <c r="M20" s="11"/>
-      <c r="N20" s="28" t="s">
+      <c r="N20" s="27" t="s">
         <v>33</v>
       </c>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="42"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="40"/>
+    <row r="21" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A21" s="39"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1440,18 +1450,18 @@
       <c r="N21" s="13"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="31" t="s">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="31" t="s">
         <v>59</v>
       </c>
       <c r="C22" s="11"/>
-      <c r="D22" s="33" t="s">
+      <c r="D22" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="34" t="s">
+      <c r="E22" s="33" t="s">
         <v>39</v>
       </c>
       <c r="F22" s="4"/>
@@ -1465,7 +1475,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1483,17 +1493,17 @@
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="50" t="s">
+      <c r="C24" s="53"/>
+      <c r="D24" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="38"/>
+      <c r="E24" s="53"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1505,18 +1515,18 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="36">
+    <row r="25" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A25" s="35">
         <v>1</v>
       </c>
-      <c r="B25" s="37" t="s">
+      <c r="B25" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="37" t="s">
+      <c r="C25" s="53"/>
+      <c r="D25" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="38"/>
+      <c r="E25" s="53"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1528,18 +1538,18 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="36">
+    <row r="26" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A26" s="35">
         <v>2</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="37" t="s">
+      <c r="C26" s="53"/>
+      <c r="D26" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="38"/>
+      <c r="E26" s="60"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1551,18 +1561,18 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="36">
+    <row r="27" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A27" s="35">
         <v>3</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="37" t="s">
+      <c r="C27" s="53"/>
+      <c r="D27" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="38"/>
+      <c r="E27" s="60"/>
       <c r="F27" s="4"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -1574,132 +1584,132 @@
       <c r="N27" s="8"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="13"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="48" t="s">
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="48" t="s">
+      <c r="H28" s="53"/>
+      <c r="I28" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="38"/>
-      <c r="K28" s="48" t="s">
+      <c r="J28" s="53"/>
+      <c r="K28" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="L28" s="38"/>
-      <c r="M28" s="48" t="s">
+      <c r="L28" s="53"/>
+      <c r="M28" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="N28" s="38"/>
+      <c r="N28" s="53"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="37"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="40"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="37"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="40"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="37"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="41" t="s">
+    <row r="32" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A32" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="40"/>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="37"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="42"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="40"/>
+    <row r="33" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A33" s="39"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="37"/>
       <c r="O33" s="4"/>
     </row>
-    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="31" t="s">
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" s="31" t="s">
         <v>59</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="33" t="s">
+      <c r="D34" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="34" t="s">
+      <c r="E34" s="33" t="s">
         <v>39</v>
       </c>
       <c r="F34" s="4"/>
@@ -1713,7 +1723,7 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1730,18 +1740,18 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
+    <row r="36" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A36" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="50" t="s">
+      <c r="C36" s="53"/>
+      <c r="D36" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="38"/>
+      <c r="E36" s="53"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1753,18 +1763,18 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="36">
+    <row r="37" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A37" s="35">
         <v>1</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="37" t="s">
+      <c r="C37" s="53"/>
+      <c r="D37" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="38"/>
+      <c r="E37" s="60"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1776,18 +1786,18 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="36">
+    <row r="38" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A38" s="35">
         <v>2</v>
       </c>
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="37" t="s">
+      <c r="C38" s="53"/>
+      <c r="D38" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="38"/>
+      <c r="E38" s="60"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1799,18 +1809,18 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="36">
+    <row r="39" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A39" s="35">
         <v>3</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="38"/>
-      <c r="D39" s="37" t="s">
+      <c r="C39" s="53"/>
+      <c r="D39" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="38"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1822,18 +1832,18 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="36">
+    <row r="40" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A40" s="35">
         <v>4</v>
       </c>
-      <c r="B40" s="37" t="s">
+      <c r="B40" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="37" t="s">
+      <c r="C40" s="53"/>
+      <c r="D40" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="38"/>
+      <c r="E40" s="60"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1845,18 +1855,18 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="36">
+    <row r="41" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A41" s="35">
         <v>5</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="37" t="s">
+      <c r="C41" s="53"/>
+      <c r="D41" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="38"/>
+      <c r="E41" s="60"/>
       <c r="F41" s="4"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -1868,131 +1878,131 @@
       <c r="N41" s="8"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="36"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="48" t="s">
+    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="35"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="38"/>
-      <c r="I42" s="48" t="s">
+      <c r="H42" s="53"/>
+      <c r="I42" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="J42" s="38"/>
-      <c r="K42" s="48" t="s">
+      <c r="J42" s="53"/>
+      <c r="K42" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="L42" s="38"/>
-      <c r="M42" s="48" t="s">
+      <c r="L42" s="53"/>
+      <c r="M42" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="N42" s="38"/>
+      <c r="N42" s="53"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="36"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="40"/>
+    <row r="43" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A43" s="35"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="49" t="s">
+      <c r="G43" s="36"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="J43" s="38"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="40"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="37"/>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="40"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="37"/>
       <c r="O44" s="4"/>
     </row>
-    <row r="45" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="41" t="s">
+    <row r="45" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A45" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="43" t="s">
+      <c r="B45" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="45"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="40"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="37"/>
       <c r="O45" s="4"/>
     </row>
-    <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="42"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="40"/>
+    <row r="46" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+      <c r="A46" s="39"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="37"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="40"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="37"/>
       <c r="O46" s="4"/>
     </row>
-    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="31" t="s">
+    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="31" t="s">
         <v>59</v>
       </c>
       <c r="C47" s="11"/>
-      <c r="D47" s="33" t="s">
+      <c r="D47" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="E47" s="34" t="s">
+      <c r="E47" s="33" t="s">
         <v>39</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="40"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="37"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2009,18 +2019,18 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
+    <row r="49" spans="1:15" ht="14" x14ac:dyDescent="0.2">
+      <c r="A49" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="38"/>
-      <c r="D49" s="50" t="s">
+      <c r="C49" s="53"/>
+      <c r="D49" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="38"/>
+      <c r="E49" s="53"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -2032,18 +2042,18 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
     </row>
-    <row r="50" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="36">
+    <row r="50" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A50" s="35">
         <v>1</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="38"/>
-      <c r="D50" s="37" t="s">
+      <c r="C50" s="53"/>
+      <c r="D50" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="38"/>
+      <c r="E50" s="60"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -2055,18 +2065,18 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="36">
+    <row r="51" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A51" s="35">
         <v>2</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="38"/>
-      <c r="D51" s="37" t="s">
+      <c r="C51" s="53"/>
+      <c r="D51" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="38"/>
+      <c r="E51" s="60"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -2078,18 +2088,18 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
     </row>
-    <row r="52" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="36">
+    <row r="52" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A52" s="35">
         <v>3</v>
       </c>
-      <c r="B52" s="37" t="s">
+      <c r="B52" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="38"/>
-      <c r="D52" s="37" t="s">
+      <c r="C52" s="53"/>
+      <c r="D52" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="38"/>
+      <c r="E52" s="60"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -2101,18 +2111,18 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="36">
+    <row r="53" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A53" s="35">
         <v>4</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="38"/>
-      <c r="D53" s="37" t="s">
+      <c r="C53" s="53"/>
+      <c r="D53" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="E53" s="38"/>
+      <c r="E53" s="60"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -2124,18 +2134,18 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="36">
+    <row r="54" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+      <c r="A54" s="35">
         <v>5</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="38"/>
-      <c r="D54" s="37" t="s">
+      <c r="C54" s="53"/>
+      <c r="D54" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="38"/>
+      <c r="E54" s="60"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -2149,68 +2159,36 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:E33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:E21"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:E46"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="M44:N44"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="B37:C37"/>
@@ -2235,36 +2213,68 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:E46"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="M31:N31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test_cases/Caso de prueba 4.xlsx
+++ b/Test_cases/Caso de prueba 4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lautaroacosta/Documents/Facultad/Testing/Grupo0102/Test_cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1B5E7A5-07F9-9044-BF2C-ADCD02AC9525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8240D55A-64DD-6B46-95FE-474A16CE8A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="500" windowWidth="30220" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3680" yWindow="500" windowWidth="28460" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -200,6 +200,9 @@
   </si>
   <si>
     <t>PE-44</t>
+  </si>
+  <si>
+    <t>Lautaro Acosta</t>
   </si>
 </sst>
 </file>
@@ -683,6 +686,15 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -694,9 +706,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -705,30 +730,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -949,8 +952,8 @@
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="181" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54:E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -969,12 +972,12 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -994,10 +997,12 @@
       <c r="C2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>60</v>
+      </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1050,7 +1055,7 @@
       <c r="O4" s="4"/>
     </row>
     <row r="5" spans="1:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="61" t="s">
+      <c r="A5" s="36" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -1084,8 +1089,8 @@
       <c r="E6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1109,8 +1114,8 @@
       <c r="E7" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1130,8 +1135,8 @@
       <c r="C8" s="4"/>
       <c r="D8" s="13"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1151,8 +1156,8 @@
       <c r="C9" s="4"/>
       <c r="D9" s="13"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1172,8 +1177,8 @@
       <c r="C10" s="4"/>
       <c r="D10" s="13"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1206,8 +1211,8 @@
       <c r="C12" s="4"/>
       <c r="D12" s="13"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1241,16 +1246,16 @@
       <c r="D14" s="13"/>
       <c r="E14" s="4"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="50"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="58"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1260,22 +1265,22 @@
       <c r="D15" s="13"/>
       <c r="E15" s="4"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="51" t="s">
+      <c r="H15" s="58"/>
+      <c r="I15" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51" t="s">
+      <c r="J15" s="58"/>
+      <c r="K15" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51" t="s">
+      <c r="L15" s="58"/>
+      <c r="M15" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="N15" s="50"/>
+      <c r="N15" s="58"/>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1285,22 +1290,22 @@
       <c r="D16" s="13"/>
       <c r="E16" s="4"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51" t="s">
+      <c r="H16" s="58"/>
+      <c r="I16" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51" t="s">
+      <c r="J16" s="58"/>
+      <c r="K16" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51" t="s">
+      <c r="L16" s="58"/>
+      <c r="M16" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="50"/>
+      <c r="N16" s="58"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1399,15 +1404,15 @@
       <c r="O19" s="4"/>
     </row>
     <row r="20" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="17"/>
       <c r="G20" s="27" t="s">
         <v>31</v>
@@ -1434,11 +1439,11 @@
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="39"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="37"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
@@ -1496,14 +1501,14 @@
       <c r="A24" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="52" t="s">
+      <c r="B24" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="52" t="s">
+      <c r="C24" s="49"/>
+      <c r="D24" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E24" s="53"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1519,14 +1524,14 @@
       <c r="A25" s="35">
         <v>1</v>
       </c>
-      <c r="B25" s="57" t="s">
+      <c r="B25" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="57" t="s">
+      <c r="C25" s="49"/>
+      <c r="D25" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="E25" s="53"/>
+      <c r="E25" s="49"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1538,18 +1543,18 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="35">
         <v>2</v>
       </c>
-      <c r="B26" s="57" t="s">
+      <c r="B26" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="59" t="s">
+      <c r="C26" s="49"/>
+      <c r="D26" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="60"/>
+      <c r="E26" s="38"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1565,14 +1570,14 @@
       <c r="A27" s="35">
         <v>3</v>
       </c>
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="59" t="s">
+      <c r="C27" s="49"/>
+      <c r="D27" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E27" s="60"/>
+      <c r="E27" s="38"/>
       <c r="F27" s="4"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -1588,114 +1593,114 @@
       <c r="A28" s="13"/>
       <c r="B28" s="54"/>
       <c r="C28" s="55"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="56" t="s">
+      <c r="G28" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="56" t="s">
+      <c r="H28" s="49"/>
+      <c r="I28" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="53"/>
-      <c r="K28" s="56" t="s">
+      <c r="J28" s="49"/>
+      <c r="K28" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="L28" s="53"/>
-      <c r="M28" s="56" t="s">
+      <c r="L28" s="49"/>
+      <c r="M28" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="N28" s="53"/>
+      <c r="N28" s="49"/>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A29" s="13"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="37"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="40"/>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A30" s="13"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="37"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="40"/>
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" ht="13" x14ac:dyDescent="0.15">
       <c r="A31" s="13"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="37"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="40"/>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="37"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="40"/>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="39"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="37"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="37"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.2">
@@ -1744,14 +1749,14 @@
       <c r="A36" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="52" t="s">
+      <c r="C36" s="49"/>
+      <c r="D36" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E36" s="53"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1767,14 +1772,14 @@
       <c r="A37" s="35">
         <v>1</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="59" t="s">
+      <c r="C37" s="49"/>
+      <c r="D37" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="60"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1786,18 +1791,18 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="35">
         <v>2</v>
       </c>
-      <c r="B38" s="57" t="s">
+      <c r="B38" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="59" t="s">
+      <c r="C38" s="49"/>
+      <c r="D38" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E38" s="60"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1813,14 +1818,14 @@
       <c r="A39" s="35">
         <v>3</v>
       </c>
-      <c r="B39" s="57" t="s">
+      <c r="B39" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="59" t="s">
+      <c r="C39" s="49"/>
+      <c r="D39" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="E39" s="60"/>
+      <c r="E39" s="38"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1832,18 +1837,18 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:15" ht="61" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="35">
         <v>4</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="59" t="s">
+      <c r="C40" s="49"/>
+      <c r="D40" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="60"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1859,14 +1864,14 @@
       <c r="A41" s="35">
         <v>5</v>
       </c>
-      <c r="B41" s="57" t="s">
+      <c r="B41" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="59" t="s">
+      <c r="C41" s="49"/>
+      <c r="D41" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="60"/>
+      <c r="E41" s="38"/>
       <c r="F41" s="4"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -1880,46 +1885,46 @@
     </row>
     <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="35"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="56" t="s">
+      <c r="G42" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="H42" s="53"/>
-      <c r="I42" s="56" t="s">
+      <c r="H42" s="49"/>
+      <c r="I42" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="J42" s="53"/>
-      <c r="K42" s="56" t="s">
+      <c r="J42" s="49"/>
+      <c r="K42" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="L42" s="53"/>
-      <c r="M42" s="56" t="s">
+      <c r="L42" s="49"/>
+      <c r="M42" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="N42" s="53"/>
+      <c r="N42" s="49"/>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" ht="14" x14ac:dyDescent="0.2">
       <c r="A43" s="35"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="58" t="s">
+      <c r="G43" s="39"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="J43" s="53"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="37"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="40"/>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="1:15" ht="13" x14ac:dyDescent="0.15">
@@ -1929,52 +1934,52 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="37"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="40"/>
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="37"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="40"/>
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="39"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="37"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="37"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="40"/>
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.2">
@@ -1992,14 +1997,14 @@
         <v>39</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="37"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="40"/>
       <c r="O47" s="4"/>
     </row>
     <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.15">
@@ -2023,14 +2028,14 @@
       <c r="A49" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
+      <c r="C49" s="49"/>
+      <c r="D49" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E49" s="53"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -2046,14 +2051,14 @@
       <c r="A50" s="35">
         <v>1</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B50" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="59" t="s">
+      <c r="C50" s="49"/>
+      <c r="D50" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="E50" s="60"/>
+      <c r="E50" s="38"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -2065,18 +2070,18 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="35">
         <v>2</v>
       </c>
-      <c r="B51" s="57" t="s">
+      <c r="B51" s="52" t="s">
         <v>45</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="59" t="s">
+      <c r="C51" s="49"/>
+      <c r="D51" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="E51" s="60"/>
+      <c r="E51" s="38"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -2088,18 +2093,18 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
     </row>
-    <row r="52" spans="1:15" ht="14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:15" ht="47" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="35">
         <v>3</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="59" t="s">
+      <c r="C52" s="49"/>
+      <c r="D52" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="60"/>
+      <c r="E52" s="38"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -2115,14 +2120,14 @@
       <c r="A53" s="35">
         <v>4</v>
       </c>
-      <c r="B53" s="57" t="s">
+      <c r="B53" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="59" t="s">
+      <c r="C53" s="49"/>
+      <c r="D53" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="E53" s="60"/>
+      <c r="E53" s="38"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -2138,14 +2143,14 @@
       <c r="A54" s="35">
         <v>5</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="52" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="59" t="s">
+      <c r="C54" s="49"/>
+      <c r="D54" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="60"/>
+      <c r="E54" s="38"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -2159,36 +2164,68 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:E46"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="B37:C37"/>
@@ -2213,68 +2250,36 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:E21"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:E33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:E46"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="M46:N46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test_cases/Caso de prueba 4.xlsx
+++ b/Test_cases/Caso de prueba 4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lautaroacosta/Documents/Facultad/Testing/Grupo0102/Test_cases/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moren\Documents\GitHub\Grupo0102\Test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8240D55A-64DD-6B46-95FE-474A16CE8A8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C87CC1A-9AA0-4E6D-88E6-C6FD1390FA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3680" yWindow="500" windowWidth="28460" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -85,12 +85,6 @@
     <t>Executions</t>
   </si>
   <si>
-    <t>Regression 1</t>
-  </si>
-  <si>
-    <t>Regression 2</t>
-  </si>
-  <si>
     <t>Regression 3</t>
   </si>
   <si>
@@ -130,9 +124,6 @@
     <t>User Adds product to cart (Main Scenario)</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>User Stories covered</t>
   </si>
   <si>
@@ -187,9 +178,6 @@
     <t>Select another item/items and add it to the cart</t>
   </si>
   <si>
-    <t>Check-out page fails</t>
-  </si>
-  <si>
     <t>Check-out fails</t>
   </si>
   <si>
@@ -203,13 +191,25 @@
   </si>
   <si>
     <t>Lautaro Acosta</t>
+  </si>
+  <si>
+    <t>Regression 1-PE-44(Main Scenario)</t>
+  </si>
+  <si>
+    <t>Not As Expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The message that the item has been added succesfully doesnt appear </t>
+  </si>
+  <si>
+    <t>Regression 1-PE-44(Alternative Scenario)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -313,8 +313,34 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -343,12 +369,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
   </fills>
@@ -597,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -667,9 +687,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -688,12 +705,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -706,22 +717,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -730,8 +728,38 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,17 +980,17 @@
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54:E54"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -972,12 +1000,12 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -987,7 +1015,7 @@
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -998,11 +1026,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="53"/>
-      <c r="G2" s="53"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1012,7 +1040,7 @@
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
     </row>
-    <row r="3" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
@@ -1037,7 +1065,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="4"/>
@@ -1054,8 +1082,8 @@
       <c r="N4" s="13"/>
       <c r="O4" s="4"/>
     </row>
-    <row r="5" spans="1:15" ht="24" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:15" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="14" t="s">
@@ -1079,7 +1107,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="17"/>
@@ -1089,8 +1117,8 @@
       <c r="E6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1100,7 +1128,7 @@
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
     </row>
-    <row r="7" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
         <v>13</v>
       </c>
@@ -1112,10 +1140,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
+        <v>54</v>
+      </c>
+      <c r="F7" s="45"/>
+      <c r="G7" s="45"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1125,7 +1153,7 @@
       <c r="N7" s="4"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="21">
         <v>1</v>
       </c>
@@ -1135,8 +1163,8 @@
       <c r="C8" s="4"/>
       <c r="D8" s="13"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1146,7 +1174,7 @@
       <c r="N8" s="4"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="21">
         <v>2</v>
       </c>
@@ -1156,8 +1184,8 @@
       <c r="C9" s="4"/>
       <c r="D9" s="13"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="45"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1167,7 +1195,7 @@
       <c r="N9" s="4"/>
       <c r="O9" s="4"/>
     </row>
-    <row r="10" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="21">
         <v>3</v>
       </c>
@@ -1177,8 +1205,8 @@
       <c r="C10" s="4"/>
       <c r="D10" s="13"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1188,7 +1216,7 @@
       <c r="N10" s="4"/>
       <c r="O10" s="4"/>
     </row>
-    <row r="11" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
       <c r="B11" s="13"/>
       <c r="C11" s="4"/>
@@ -1205,14 +1233,14 @@
       <c r="N11" s="4"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="4"/>
       <c r="D12" s="13"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1222,7 +1250,7 @@
       <c r="N12" s="4"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1239,73 +1267,73 @@
       <c r="N13" s="22"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="13"/>
       <c r="E14" s="4"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="56" t="s">
+      <c r="G14" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="57"/>
-      <c r="N14" s="58"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="50"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="13"/>
       <c r="E15" s="4"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="H15" s="50"/>
+      <c r="I15" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59" t="s">
+      <c r="L15" s="50"/>
+      <c r="M15" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="J15" s="58"/>
-      <c r="K15" s="59" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="58"/>
-      <c r="M15" s="59" t="s">
-        <v>24</v>
-      </c>
-      <c r="N15" s="58"/>
+      <c r="N15" s="50"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="13"/>
       <c r="E16" s="4"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="59" t="s">
+      <c r="G16" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="50"/>
+      <c r="I16" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="H16" s="58"/>
-      <c r="I16" s="59" t="s">
+      <c r="L16" s="50"/>
+      <c r="M16" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="J16" s="58"/>
-      <c r="K16" s="59" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" s="58"/>
-      <c r="M16" s="59" t="s">
-        <v>28</v>
-      </c>
-      <c r="N16" s="58"/>
+      <c r="N16" s="50"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1316,32 +1344,32 @@
       <c r="E17" s="4"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -1349,30 +1377,28 @@
       <c r="E18" s="4"/>
       <c r="F18" s="17"/>
       <c r="G18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H18" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I18" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27" t="s">
         <v>31</v>
-      </c>
-      <c r="H18" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I18" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>32</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -1380,107 +1406,111 @@
       <c r="E19" s="8"/>
       <c r="F19" s="17"/>
       <c r="G19" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="K19" s="27"/>
+      <c r="L19" s="27" t="s">
         <v>31</v>
-      </c>
-      <c r="H19" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I19" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="27" t="s">
-        <v>32</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A20" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="45"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
       <c r="F20" s="17"/>
       <c r="G20" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="64" t="s">
+        <v>30</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="I20" s="27" t="s">
+      <c r="M20" s="11"/>
+      <c r="N20" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="J20" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="L20" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="27" t="s">
-        <v>33</v>
-      </c>
       <c r="O20" s="4"/>
     </row>
-    <row r="21" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A21" s="42"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="40"/>
+    <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="39"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="37"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="I21" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>30</v>
+      </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="4"/>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>59</v>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="C22" s="11"/>
-      <c r="D22" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>39</v>
+      <c r="D22" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="I22" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="64" t="s">
+        <v>30</v>
+      </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="4"/>
     </row>
-    <row r="23" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -1498,17 +1528,17 @@
       <c r="O23" s="4"/>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="49"/>
+      <c r="A24" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="53"/>
+      <c r="D24" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="53"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1520,18 +1550,18 @@
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
     </row>
-    <row r="25" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A25" s="35">
+    <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="34">
         <v>1</v>
       </c>
-      <c r="B25" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="49"/>
-      <c r="D25" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="49"/>
+      <c r="B25" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="53"/>
+      <c r="D25" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="53"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1543,18 +1573,18 @@
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
     </row>
-    <row r="26" spans="1:15" ht="65" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35">
+    <row r="26" spans="1:15" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="34">
         <v>2</v>
       </c>
-      <c r="B26" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E26" s="38"/>
+      <c r="B26" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="53"/>
+      <c r="D26" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E26" s="59"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1566,18 +1596,18 @@
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A27" s="35">
+    <row r="27" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="34">
         <v>3</v>
       </c>
-      <c r="B27" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="49"/>
-      <c r="D27" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E27" s="38"/>
+      <c r="B27" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="53"/>
+      <c r="D27" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="59"/>
       <c r="F27" s="4"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -1589,133 +1619,135 @@
       <c r="N27" s="8"/>
       <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
       <c r="B28" s="54"/>
       <c r="C28" s="55"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="49"/>
-      <c r="I28" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="49"/>
-      <c r="K28" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28" s="49"/>
-      <c r="M28" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="N28" s="49"/>
+      <c r="G28" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="53"/>
+      <c r="I28" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="53"/>
+      <c r="K28" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="L28" s="53"/>
+      <c r="M28" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="N28" s="53"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="45"/>
+      <c r="E29" s="45"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="39"/>
-      <c r="L29" s="40"/>
-      <c r="M29" s="39"/>
-      <c r="N29" s="40"/>
+      <c r="G29" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="62"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="36"/>
+      <c r="N29" s="37"/>
       <c r="O29" s="4"/>
     </row>
-    <row r="30" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="39"/>
-      <c r="L30" s="40"/>
-      <c r="M30" s="39"/>
-      <c r="N30" s="40"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="37"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="31" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="45"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="39"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="39"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="40"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="40"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="37"/>
       <c r="O31" s="4"/>
     </row>
-    <row r="32" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A32" s="41" t="s">
+    <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="41"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="36"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="39"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="37"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="37"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C32" s="44"/>
-      <c r="D32" s="44"/>
-      <c r="E32" s="45"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="40"/>
-      <c r="M32" s="39"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="4"/>
-    </row>
-    <row r="33" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A33" s="42"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="40"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="40"/>
-      <c r="O33" s="4"/>
-    </row>
-    <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="31" t="s">
-        <v>59</v>
+      <c r="B34" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="C34" s="11"/>
-      <c r="D34" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="33" t="s">
-        <v>39</v>
+      <c r="D34" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1728,7 +1760,7 @@
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
-    <row r="35" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="8"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -1745,18 +1777,18 @@
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="1:15" ht="14" x14ac:dyDescent="0.2">
-      <c r="A36" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="49"/>
+    <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="53"/>
+      <c r="D36" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E36" s="53"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1768,18 +1800,18 @@
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A37" s="35">
+    <row r="37" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="34">
         <v>1</v>
       </c>
-      <c r="B37" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E37" s="38"/>
+      <c r="B37" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="53"/>
+      <c r="D37" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="59"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1791,18 +1823,18 @@
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="35">
+    <row r="38" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="34">
         <v>2</v>
       </c>
-      <c r="B38" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" s="49"/>
-      <c r="D38" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" s="38"/>
+      <c r="B38" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C38" s="53"/>
+      <c r="D38" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E38" s="59"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1814,18 +1846,18 @@
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A39" s="35">
+    <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="34">
         <v>3</v>
       </c>
-      <c r="B39" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C39" s="49"/>
-      <c r="D39" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E39" s="38"/>
+      <c r="B39" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="53"/>
+      <c r="D39" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="E39" s="59"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1837,18 +1869,18 @@
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="1:15" ht="61" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="35">
+    <row r="40" spans="1:15" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="34">
         <v>4</v>
       </c>
-      <c r="B40" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="38"/>
+      <c r="B40" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="53"/>
+      <c r="D40" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E40" s="59"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1860,18 +1892,18 @@
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A41" s="35">
+    <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="34">
         <v>5</v>
       </c>
-      <c r="B41" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E41" s="38"/>
+      <c r="B41" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="53"/>
+      <c r="D41" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" s="59"/>
       <c r="F41" s="4"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -1883,131 +1915,129 @@
       <c r="N41" s="8"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="35"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="40"/>
+    <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A42" s="34"/>
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="36"/>
+      <c r="E42" s="37"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="H42" s="49"/>
-      <c r="I42" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="J42" s="49"/>
-      <c r="K42" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="L42" s="49"/>
-      <c r="M42" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="N42" s="49"/>
+      <c r="G42" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" s="53"/>
+      <c r="I42" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="J42" s="53"/>
+      <c r="K42" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="L42" s="53"/>
+      <c r="M42" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="N42" s="53"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="1:15" ht="14" x14ac:dyDescent="0.2">
-      <c r="A43" s="35"/>
-      <c r="B43" s="39"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="40"/>
+    <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="34"/>
+      <c r="B43" s="36"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="36"/>
+      <c r="E43" s="37"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="39"/>
-      <c r="H43" s="40"/>
-      <c r="I43" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="J43" s="49"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="40"/>
-      <c r="M43" s="39"/>
-      <c r="N43" s="40"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="53"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="36"/>
+      <c r="N43" s="37"/>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="39"/>
-      <c r="H44" s="40"/>
-      <c r="I44" s="39"/>
-      <c r="J44" s="40"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="40"/>
-      <c r="M44" s="39"/>
-      <c r="N44" s="40"/>
+      <c r="G44" s="36"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="36"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="36"/>
+      <c r="N44" s="37"/>
       <c r="O44" s="4"/>
     </row>
-    <row r="45" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A45" s="41" t="s">
+    <row r="45" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="36"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="36"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="36"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="4"/>
+    </row>
+    <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="39"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="37"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="36"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="36"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="36"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="4"/>
+    </row>
+    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A47" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="39"/>
-      <c r="H45" s="40"/>
-      <c r="I45" s="39"/>
-      <c r="J45" s="40"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="40"/>
-      <c r="M45" s="39"/>
-      <c r="N45" s="40"/>
-      <c r="O45" s="4"/>
-    </row>
-    <row r="46" spans="1:15" ht="13" x14ac:dyDescent="0.15">
-      <c r="A46" s="42"/>
-      <c r="B46" s="46"/>
-      <c r="C46" s="47"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="40"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="40"/>
-      <c r="O46" s="4"/>
-    </row>
-    <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B47" s="31" t="s">
-        <v>59</v>
+      <c r="B47" s="30" t="s">
+        <v>55</v>
       </c>
       <c r="C47" s="11"/>
-      <c r="D47" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="33" t="s">
-        <v>39</v>
+      <c r="D47" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" s="32" t="s">
+        <v>36</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="39"/>
-      <c r="H47" s="40"/>
-      <c r="I47" s="39"/>
-      <c r="J47" s="40"/>
-      <c r="K47" s="39"/>
-      <c r="L47" s="40"/>
-      <c r="M47" s="39"/>
-      <c r="N47" s="40"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="37"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="1:15" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="8"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -2024,18 +2054,18 @@
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
     </row>
-    <row r="49" spans="1:15" ht="14" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="B49" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="E49" s="49"/>
+    <row r="49" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="53"/>
+      <c r="D49" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="53"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -2047,18 +2077,18 @@
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
     </row>
-    <row r="50" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A50" s="35">
+    <row r="50" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="34">
         <v>1</v>
       </c>
-      <c r="B50" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="37" t="s">
-        <v>44</v>
-      </c>
-      <c r="E50" s="38"/>
+      <c r="B50" s="57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" s="53"/>
+      <c r="D50" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="59"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -2070,18 +2100,18 @@
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
     </row>
-    <row r="51" spans="1:15" ht="50" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="35">
+    <row r="51" spans="1:15" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="34">
         <v>2</v>
       </c>
-      <c r="B51" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="49"/>
-      <c r="D51" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="E51" s="38"/>
+      <c r="B51" s="57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C51" s="53"/>
+      <c r="D51" s="58" t="s">
+        <v>48</v>
+      </c>
+      <c r="E51" s="59"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -2093,18 +2123,18 @@
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
     </row>
-    <row r="52" spans="1:15" ht="47" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="35">
+    <row r="52" spans="1:15" ht="47.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="34">
         <v>3</v>
       </c>
-      <c r="B52" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="38"/>
+      <c r="B52" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="53"/>
+      <c r="D52" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E52" s="59"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -2116,18 +2146,18 @@
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
     </row>
-    <row r="53" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A53" s="35">
+    <row r="53" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="34">
         <v>4</v>
       </c>
-      <c r="B53" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="E53" s="38"/>
+      <c r="B53" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="C53" s="53"/>
+      <c r="D53" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="59"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -2139,18 +2169,18 @@
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
     </row>
-    <row r="54" spans="1:15" ht="14" x14ac:dyDescent="0.15">
-      <c r="A54" s="35">
+    <row r="54" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="34">
         <v>5</v>
       </c>
-      <c r="B54" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C54" s="49"/>
-      <c r="D54" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E54" s="38"/>
+      <c r="B54" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="53"/>
+      <c r="D54" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="59"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -2164,68 +2194,36 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:E33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:E21"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:E46"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="M44:N44"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="B37:C37"/>
@@ -2250,37 +2248,70 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:E46"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="M31:N31"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test_cases/Caso de prueba 4.xlsx
+++ b/Test_cases/Caso de prueba 4.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moren\Documents\GitHub\Grupo0102\Test_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C87CC1A-9AA0-4E6D-88E6-C6FD1390FA0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF25FE0-B19D-459C-A193-D5363448D52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
+    <sheet name="PE-44" sheetId="1" r:id="rId1"/>
+    <sheet name="Defects created(Iñaki Moreno)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="85">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -97,12 +98,6 @@
     <t>Tester: Nino Bizzotto</t>
   </si>
   <si>
-    <t>Tester: Facundo Martinez Vidal</t>
-  </si>
-  <si>
-    <t>Tester: Inaki Moreno</t>
-  </si>
-  <si>
     <t>Actual Results</t>
   </si>
   <si>
@@ -203,13 +198,91 @@
   </si>
   <si>
     <t>Regression 1-PE-44(Alternative Scenario)</t>
+  </si>
+  <si>
+    <t>Tester: Iñaki Moreno</t>
+  </si>
+  <si>
+    <t>Tester: Facu martinez vidal</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description / Overview</t>
+  </si>
+  <si>
+    <t>Reproduction Steps</t>
+  </si>
+  <si>
+    <t>1- Open the application page http://127.0.0.1:5000/</t>
+  </si>
+  <si>
+    <t>2- Click "Log-In"</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>Actual Behavior</t>
+  </si>
+  <si>
+    <t>Incidence / Severity / Probability of reproduction</t>
+  </si>
+  <si>
+    <t>100% reproduction rate</t>
+  </si>
+  <si>
+    <t>Story and Acceptance Criteria affected</t>
+  </si>
+  <si>
+    <t>Browsers tested</t>
+  </si>
+  <si>
+    <t>Google Chrome</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>QA environment, http://127.0.0.1:5000/loginForm</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>"Succesfully added to the cart" message doesnt appear</t>
+  </si>
+  <si>
+    <t>When you add an item to the cart a mesagge confirming that you added it should appear but it doesnt</t>
+  </si>
+  <si>
+    <t>3- Enter Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- Enter Password </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-add an item to the cart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Succesfully added to the cart" message should appear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the message doesnt appear but the items still adds to the cart </t>
+  </si>
+  <si>
+    <t>Low Severity - The items adds to the cart the only thing that doesnt appear is the message</t>
+  </si>
+  <si>
+    <t>Affected User Story: PE-44</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -339,8 +412,27 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -371,8 +463,14 @@
         <bgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -613,11 +711,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -705,6 +938,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -717,9 +959,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -728,37 +985,43 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -980,8 +1243,8 @@
   </sheetPr>
   <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29:H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1000,12 +1263,12 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="47"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1026,11 +1289,11 @@
         <v>6</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+      <c r="F2" s="53"/>
+      <c r="G2" s="53"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1117,8 +1380,8 @@
       <c r="E6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -1140,10 +1403,10 @@
         <v>2</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="45"/>
-      <c r="G7" s="45"/>
+        <v>52</v>
+      </c>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -1163,8 +1426,8 @@
       <c r="C8" s="4"/>
       <c r="D8" s="13"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1184,8 +1447,8 @@
       <c r="C9" s="4"/>
       <c r="D9" s="13"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1205,8 +1468,8 @@
       <c r="C10" s="4"/>
       <c r="D10" s="13"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1239,8 +1502,8 @@
       <c r="C12" s="4"/>
       <c r="D12" s="13"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1274,16 +1537,16 @@
       <c r="D14" s="13"/>
       <c r="E14" s="4"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="48" t="s">
+      <c r="G14" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="50"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="60"/>
       <c r="O14" s="4"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1293,22 +1556,22 @@
       <c r="D15" s="13"/>
       <c r="E15" s="4"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="63" t="s">
-        <v>60</v>
-      </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51" t="s">
+      <c r="G15" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="60"/>
+      <c r="I15" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="60"/>
+      <c r="K15" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="L15" s="50"/>
-      <c r="M15" s="51" t="s">
+      <c r="L15" s="60"/>
+      <c r="M15" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="N15" s="50"/>
+      <c r="N15" s="60"/>
       <c r="O15" s="4"/>
     </row>
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1318,22 +1581,22 @@
       <c r="D16" s="13"/>
       <c r="E16" s="4"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="51" t="s">
+      <c r="G16" s="61" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="60"/>
+      <c r="I16" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="J16" s="60"/>
+      <c r="K16" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="51" t="s">
+      <c r="L16" s="60"/>
+      <c r="M16" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51" t="s">
-        <v>25</v>
-      </c>
-      <c r="L16" s="50"/>
-      <c r="M16" s="51" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="50"/>
+      <c r="N16" s="60"/>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1344,28 +1607,28 @@
       <c r="E17" s="4"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="J17" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K17" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L17" s="25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M17" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N17" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O17" s="4"/>
     </row>
@@ -1377,24 +1640,24 @@
       <c r="E18" s="4"/>
       <c r="F18" s="17"/>
       <c r="G18" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H18" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I18" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K18" s="27"/>
       <c r="L18" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M18" s="11"/>
       <c r="N18" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O18" s="4"/>
     </row>
@@ -1406,74 +1669,74 @@
       <c r="E19" s="8"/>
       <c r="F19" s="17"/>
       <c r="G19" s="27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H19" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I19" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K19" s="27"/>
       <c r="L19" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M19" s="11"/>
       <c r="N19" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="O19" s="4"/>
-    </row>
-    <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="42"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="17"/>
       <c r="G20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="27"/>
+      <c r="L20" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="I20" s="27" t="s">
+      <c r="M20" s="11"/>
+      <c r="N20" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="J20" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="K20" s="27"/>
-      <c r="L20" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="11"/>
-      <c r="N20" s="65" t="s">
-        <v>31</v>
-      </c>
       <c r="O20" s="4"/>
     </row>
     <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="37"/>
+      <c r="A21" s="42"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
@@ -1483,26 +1746,26 @@
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C22" s="11"/>
       <c r="D22" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
       <c r="I22" s="27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" s="64" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>28</v>
       </c>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -1529,16 +1792,16 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="53"/>
-      <c r="D24" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E24" s="53"/>
+      <c r="E24" s="49"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
@@ -1554,14 +1817,14 @@
       <c r="A25" s="34">
         <v>1</v>
       </c>
-      <c r="B25" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="53"/>
-      <c r="D25" s="57" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="53"/>
+      <c r="B25" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="49"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
@@ -1577,14 +1840,14 @@
       <c r="A26" s="34">
         <v>2</v>
       </c>
-      <c r="B26" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E26" s="59"/>
+      <c r="B26" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="38"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
@@ -1600,14 +1863,14 @@
       <c r="A27" s="34">
         <v>3</v>
       </c>
-      <c r="B27" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="53"/>
-      <c r="D27" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E27" s="59"/>
+      <c r="B27" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="49"/>
+      <c r="D27" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="38"/>
       <c r="F27" s="4"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
@@ -1621,133 +1884,133 @@
     </row>
     <row r="28" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="13"/>
-      <c r="B28" s="54"/>
-      <c r="C28" s="55"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="17"/>
-      <c r="G28" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="53"/>
-      <c r="I28" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="53"/>
-      <c r="K28" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="L28" s="53"/>
-      <c r="M28" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="N28" s="53"/>
+      <c r="G28" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H28" s="49"/>
+      <c r="I28" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J28" s="49"/>
+      <c r="K28" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="49"/>
+      <c r="M28" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="N28" s="49"/>
       <c r="O28" s="4"/>
     </row>
     <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
-      <c r="B29" s="45"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="45"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
       <c r="F29" s="17"/>
-      <c r="G29" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="62"/>
-      <c r="I29" s="36"/>
-      <c r="J29" s="37"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="37"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="37"/>
+      <c r="G29" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="55"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="39"/>
+      <c r="L29" s="40"/>
+      <c r="M29" s="39"/>
+      <c r="N29" s="40"/>
       <c r="O29" s="4"/>
     </row>
     <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="13"/>
-      <c r="B30" s="45"/>
-      <c r="C30" s="45"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="45"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
       <c r="F30" s="17"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="36"/>
-      <c r="J30" s="37"/>
-      <c r="K30" s="36"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="37"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="40"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="40"/>
       <c r="O30" s="4"/>
     </row>
     <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="13"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="45"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
       <c r="F31" s="17"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="36"/>
-      <c r="L31" s="37"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="37"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="39"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="39"/>
+      <c r="L31" s="40"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="40"/>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="42"/>
+      <c r="A32" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="45"/>
       <c r="F32" s="17"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
-      <c r="I32" s="36"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="36"/>
-      <c r="L32" s="37"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="37"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="40"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="40"/>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="39"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="44"/>
-      <c r="E33" s="37"/>
+      <c r="A33" s="42"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="40"/>
       <c r="F33" s="17"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
-      <c r="I33" s="36"/>
-      <c r="J33" s="37"/>
-      <c r="K33" s="36"/>
-      <c r="L33" s="37"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="37"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="40"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="40"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="40"/>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="11"/>
       <c r="D34" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1779,16 +2042,16 @@
     </row>
     <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="49"/>
+      <c r="D36" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E36" s="53"/>
+      <c r="E36" s="49"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
@@ -1804,14 +2067,14 @@
       <c r="A37" s="34">
         <v>1</v>
       </c>
-      <c r="B37" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="59"/>
+      <c r="B37" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="49"/>
+      <c r="D37" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E37" s="38"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
@@ -1827,14 +2090,14 @@
       <c r="A38" s="34">
         <v>2</v>
       </c>
-      <c r="B38" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="E38" s="59"/>
+      <c r="B38" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="49"/>
+      <c r="D38" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38" s="38"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
@@ -1850,14 +2113,14 @@
       <c r="A39" s="34">
         <v>3</v>
       </c>
-      <c r="B39" s="57" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="53"/>
-      <c r="D39" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="E39" s="59"/>
+      <c r="B39" s="52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="E39" s="38"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -1873,14 +2136,14 @@
       <c r="A40" s="34">
         <v>4</v>
       </c>
-      <c r="B40" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="53"/>
-      <c r="D40" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E40" s="59"/>
+      <c r="B40" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="38"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
@@ -1896,14 +2159,14 @@
       <c r="A41" s="34">
         <v>5</v>
       </c>
-      <c r="B41" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="53"/>
-      <c r="D41" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E41" s="59"/>
+      <c r="B41" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="49"/>
+      <c r="D41" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E41" s="38"/>
       <c r="F41" s="4"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
@@ -1917,44 +2180,44 @@
     </row>
     <row r="42" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="34"/>
-      <c r="B42" s="36"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="36"/>
-      <c r="E42" s="37"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="40"/>
       <c r="F42" s="17"/>
-      <c r="G42" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" s="53"/>
-      <c r="I42" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="J42" s="53"/>
-      <c r="K42" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="L42" s="53"/>
-      <c r="M42" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="N42" s="53"/>
+      <c r="G42" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H42" s="49"/>
+      <c r="I42" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="J42" s="49"/>
+      <c r="K42" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" s="49"/>
+      <c r="M42" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="N42" s="49"/>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="34"/>
-      <c r="B43" s="36"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="37"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="40"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="40"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37"/>
-      <c r="I43" s="60"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="37"/>
-      <c r="M43" s="36"/>
-      <c r="N43" s="37"/>
+      <c r="G43" s="39"/>
+      <c r="H43" s="40"/>
+      <c r="I43" s="50"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="39"/>
+      <c r="L43" s="40"/>
+      <c r="M43" s="39"/>
+      <c r="N43" s="40"/>
       <c r="O43" s="4"/>
     </row>
     <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -1964,77 +2227,77 @@
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="36"/>
-      <c r="H44" s="37"/>
-      <c r="I44" s="36"/>
-      <c r="J44" s="37"/>
-      <c r="K44" s="36"/>
-      <c r="L44" s="37"/>
-      <c r="M44" s="36"/>
-      <c r="N44" s="37"/>
+      <c r="G44" s="39"/>
+      <c r="H44" s="40"/>
+      <c r="I44" s="39"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="39"/>
+      <c r="L44" s="40"/>
+      <c r="M44" s="39"/>
+      <c r="N44" s="40"/>
       <c r="O44" s="4"/>
     </row>
     <row r="45" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="B45" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="42"/>
+      <c r="A45" s="41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="44"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="45"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="36"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="36"/>
-      <c r="L45" s="37"/>
-      <c r="M45" s="36"/>
-      <c r="N45" s="37"/>
+      <c r="G45" s="39"/>
+      <c r="H45" s="40"/>
+      <c r="I45" s="39"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="39"/>
+      <c r="L45" s="40"/>
+      <c r="M45" s="39"/>
+      <c r="N45" s="40"/>
       <c r="O45" s="4"/>
     </row>
     <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="39"/>
-      <c r="B46" s="43"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="37"/>
+      <c r="A46" s="42"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="47"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="40"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="36"/>
-      <c r="H46" s="37"/>
-      <c r="I46" s="36"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="36"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="36"/>
-      <c r="N46" s="37"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="40"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="40"/>
       <c r="O46" s="4"/>
     </row>
     <row r="47" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B47" s="30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C47" s="11"/>
       <c r="D47" s="31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F47" s="4"/>
-      <c r="G47" s="36"/>
-      <c r="H47" s="37"/>
-      <c r="I47" s="36"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="36"/>
-      <c r="L47" s="37"/>
-      <c r="M47" s="36"/>
-      <c r="N47" s="37"/>
+      <c r="G47" s="39"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="39"/>
+      <c r="J47" s="40"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="40"/>
+      <c r="M47" s="39"/>
+      <c r="N47" s="40"/>
       <c r="O47" s="4"/>
     </row>
     <row r="48" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
@@ -2056,16 +2319,16 @@
     </row>
     <row r="49" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49" s="49"/>
+      <c r="D49" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="53"/>
+      <c r="E49" s="49"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -2081,14 +2344,14 @@
       <c r="A50" s="34">
         <v>1</v>
       </c>
-      <c r="B50" s="57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="59"/>
+      <c r="B50" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="49"/>
+      <c r="D50" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="38"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
@@ -2104,14 +2367,14 @@
       <c r="A51" s="34">
         <v>2</v>
       </c>
-      <c r="B51" s="57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="E51" s="59"/>
+      <c r="B51" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="49"/>
+      <c r="D51" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E51" s="38"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -2127,14 +2390,14 @@
       <c r="A52" s="34">
         <v>3</v>
       </c>
-      <c r="B52" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="E52" s="59"/>
+      <c r="B52" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" s="49"/>
+      <c r="D52" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="38"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
@@ -2150,14 +2413,14 @@
       <c r="A53" s="34">
         <v>4</v>
       </c>
-      <c r="B53" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="59"/>
+      <c r="B53" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="49"/>
+      <c r="D53" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E53" s="38"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -2173,14 +2436,14 @@
       <c r="A54" s="34">
         <v>5</v>
       </c>
-      <c r="B54" s="57" t="s">
-        <v>52</v>
-      </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="58" t="s">
-        <v>53</v>
-      </c>
-      <c r="E54" s="59"/>
+      <c r="B54" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C54" s="49"/>
+      <c r="D54" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E54" s="38"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -2194,36 +2457,68 @@
     </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I46:J46"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:J47"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="M47:N47"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:E46"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="I45:J45"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="M46:N46"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="I42:J42"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="I44:J44"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="I43:J43"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="M43:N43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:E33"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:E21"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="D36:E36"/>
     <mergeCell ref="B37:C37"/>
@@ -2248,70 +2543,252 @@
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="D41:E41"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:E21"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:E33"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="M33:N33"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="I42:J42"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="I44:J44"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="I43:J43"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I46:J46"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:J47"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:E46"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="I45:J45"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="M46:N46"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BF0F32-610D-4972-AD42-2E23D8D43F57}">
+  <dimension ref="A1:B36"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="66" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="67"/>
+      <c r="B2" s="67"/>
+    </row>
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="67"/>
+      <c r="B4" s="67"/>
+    </row>
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="70" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="71"/>
+      <c r="B6" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="73"/>
+      <c r="B7" s="74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="73"/>
+      <c r="B8" s="74" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="67"/>
+      <c r="B9" s="74" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="67"/>
+      <c r="B10" s="74"/>
+    </row>
+    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="67"/>
+      <c r="B11" s="74"/>
+    </row>
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="67"/>
+      <c r="B12" s="74"/>
+    </row>
+    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
+      <c r="B13" s="74"/>
+    </row>
+    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="67"/>
+      <c r="B14" s="74"/>
+    </row>
+    <row r="15" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="67"/>
+      <c r="B15" s="74"/>
+    </row>
+    <row r="16" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
+      <c r="B16" s="74"/>
+    </row>
+    <row r="17" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A17" s="67"/>
+      <c r="B17" s="74"/>
+    </row>
+    <row r="18" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A18" s="67"/>
+      <c r="B18" s="67"/>
+    </row>
+    <row r="19" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
+      <c r="B19" s="67"/>
+    </row>
+    <row r="20" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A20" s="67"/>
+      <c r="B20" s="67"/>
+    </row>
+    <row r="21" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="67"/>
+    </row>
+    <row r="22" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A22" s="75" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="76" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A23" s="67"/>
+      <c r="B23" s="67"/>
+    </row>
+    <row r="24" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A24" s="75" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="76" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="67"/>
+      <c r="B25" s="67"/>
+    </row>
+    <row r="26" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A26" s="69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B26" s="70" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A27" s="73"/>
+      <c r="B27" s="74" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A28" s="67"/>
+      <c r="B28" s="67"/>
+    </row>
+    <row r="29" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="75" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" s="77" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="67"/>
+      <c r="B30" s="67"/>
+    </row>
+    <row r="31" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="75" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="76" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="67"/>
+      <c r="B32" s="67"/>
+    </row>
+    <row r="33" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A33" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="76" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="67"/>
+      <c r="B34" s="67"/>
+    </row>
+    <row r="35" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="79"/>
+    </row>
+    <row r="36" spans="1:2" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="80"/>
+      <c r="B36" s="81"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A35:A36"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>